--- a/nodes_source_analyses/industry/industry_chemicals_other_flexibility_p2h_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_other_flexibility_p2h_electricity.converter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
@@ -37,13 +42,13 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -185,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -620,6 +622,10 @@
   <si>
     <t>Variable operational and maintenance costs</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -630,7 +636,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -854,11 +860,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1476,7 +1477,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1770,20 +1771,20 @@
     <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1800,13 +1801,13 @@
     <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1852,14 +1853,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1870,9 +1871,9 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1924,7 +1925,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1974,34 +1975,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2499,77 +2500,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2783,7 +2714,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2896,7 +2827,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3285,50 +3216,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="20"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="21">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3337,29 +3268,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="68"/>
       <c r="C10" s="69"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="68" t="s">
         <v>27</v>
@@ -3368,33 +3299,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="68"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="68"/>
       <c r="C14" s="69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="68"/>
       <c r="C15" s="69"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="68" t="s">
         <v>32</v>
@@ -3403,49 +3334,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="68"/>
       <c r="C17" s="73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="68"/>
       <c r="C18" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="68"/>
       <c r="C19" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="76"/>
       <c r="C21" s="78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="76"/>
       <c r="C22" s="79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="76"/>
       <c r="C23" s="80" t="s">
         <v>40</v>
@@ -3454,88 +3385,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="32"/>
+    <col min="1" max="1" width="3.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="197" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="198" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="200"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="203"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="205"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="204"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="206"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="157"/>
       <c r="C8" s="158"/>
       <c r="D8" s="159"/>
@@ -3546,7 +3472,7 @@
       <c r="I8" s="159"/>
       <c r="J8" s="160"/>
     </row>
-    <row r="9" spans="1:11" s="24" customFormat="1">
+    <row r="9" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
         <v>19</v>
@@ -3567,7 +3493,7 @@
       </c>
       <c r="J9" s="161"/>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1">
+    <row r="10" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="162"/>
       <c r="C10" s="162"/>
       <c r="D10" s="19"/>
@@ -3578,7 +3504,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="163"/>
     </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="162"/>
       <c r="C11" s="162" t="s">
         <v>44</v>
@@ -3591,11 +3517,11 @@
       <c r="I11" s="30"/>
       <c r="J11" s="163"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="162"/>
       <c r="C12" s="147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="164">
@@ -3604,20 +3530,20 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="163"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="162"/>
       <c r="C13" s="148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>2</v>
@@ -3628,23 +3554,23 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="163"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="151"/>
       <c r="C14" s="149" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="182">
         <f>'Research data'!H9</f>
@@ -3652,20 +3578,20 @@
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="166"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96"/>
       <c r="B15" s="151"/>
       <c r="C15" s="150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="164">
@@ -3676,15 +3602,15 @@
       <c r="G15" s="94"/>
       <c r="H15" s="94"/>
       <c r="I15" s="167" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="166"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="151"/>
       <c r="C16" s="151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>2</v>
@@ -3697,14 +3623,14 @@
       <c r="G16" s="94"/>
       <c r="H16" s="94"/>
       <c r="I16" s="167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J16" s="166"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="151"/>
       <c r="C17" s="151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>2</v>
@@ -3716,14 +3642,14 @@
       <c r="G17" s="94"/>
       <c r="H17" s="94"/>
       <c r="I17" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="166"/>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1">
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="151"/>
       <c r="C18" s="156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="168">
@@ -3739,10 +3665,10 @@
       </c>
       <c r="J18" s="166"/>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="151"/>
       <c r="C19" s="156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="168">
@@ -3758,10 +3684,10 @@
       </c>
       <c r="J19" s="166"/>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="151"/>
       <c r="C20" s="156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="168">
@@ -3777,10 +3703,10 @@
       </c>
       <c r="J20" s="166"/>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="151"/>
       <c r="C21" s="156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="168">
@@ -3796,7 +3722,7 @@
       </c>
       <c r="J21" s="166"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="152"/>
       <c r="C22" s="152"/>
       <c r="D22" s="34"/>
@@ -3807,7 +3733,7 @@
       <c r="I22" s="34"/>
       <c r="J22" s="170"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="152"/>
       <c r="C23" s="162" t="s">
         <v>43</v>
@@ -3820,7 +3746,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="170"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="152"/>
       <c r="C24" s="152" t="s">
         <v>22</v>
@@ -3838,17 +3764,17 @@
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="170"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="152"/>
       <c r="C25" s="152" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="164">
         <f>'Research data'!H25</f>
@@ -3856,21 +3782,21 @@
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="170"/>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="172"/>
       <c r="C26" s="153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="164">
         <f>'Research data'!H26</f>
@@ -3878,18 +3804,18 @@
       </c>
       <c r="F26" s="116"/>
       <c r="G26" s="114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="116"/>
       <c r="I26" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="173"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="172"/>
       <c r="C27" s="153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="164">
@@ -3898,18 +3824,18 @@
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="116"/>
       <c r="I27" s="174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J27" s="173"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="172"/>
       <c r="C28" s="153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="115"/>
       <c r="E28" s="164">
@@ -3918,18 +3844,18 @@
       </c>
       <c r="F28" s="116"/>
       <c r="G28" s="119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="116"/>
       <c r="I28" s="175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J28" s="173"/>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="172"/>
       <c r="C29" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="115"/>
       <c r="E29" s="164">
@@ -3938,18 +3864,18 @@
       </c>
       <c r="F29" s="116"/>
       <c r="G29" s="119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" s="116"/>
       <c r="I29" s="175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="173"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="172"/>
       <c r="C30" s="153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="115"/>
       <c r="E30" s="164">
@@ -3958,44 +3884,44 @@
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H30" s="116"/>
       <c r="I30" s="174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="173"/>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
       <c r="B31" s="151"/>
       <c r="C31" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="E31" s="168">
         <v>0.1</v>
       </c>
       <c r="F31" s="94"/>
       <c r="G31" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="94"/>
       <c r="I31" s="167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J31" s="166"/>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="151"/>
       <c r="C32" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="E32" s="168">
         <v>0</v>
@@ -4004,11 +3930,11 @@
       <c r="G32" s="94"/>
       <c r="H32" s="94"/>
       <c r="I32" s="167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J32" s="166"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="96"/>
       <c r="B33" s="151"/>
       <c r="C33" s="151"/>
@@ -4020,7 +3946,7 @@
       <c r="I33" s="94"/>
       <c r="J33" s="166"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="96"/>
       <c r="B34" s="151"/>
       <c r="C34" s="162" t="s">
@@ -4034,7 +3960,7 @@
       <c r="I34" s="94"/>
       <c r="J34" s="166"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="96"/>
       <c r="B35" s="151"/>
       <c r="C35" s="151" t="s">
@@ -4049,19 +3975,19 @@
       </c>
       <c r="F35" s="94"/>
       <c r="G35" s="94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="94"/>
       <c r="I35" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" s="166"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="96"/>
       <c r="B36" s="151"/>
       <c r="C36" s="151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>1</v>
@@ -4072,20 +3998,20 @@
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H36" s="94"/>
       <c r="I36" s="176"/>
       <c r="J36" s="166"/>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1">
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="96"/>
       <c r="B37" s="151"/>
       <c r="C37" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="E37" s="177">
         <f>'Research data'!H36</f>
@@ -4093,13 +4019,13 @@
       </c>
       <c r="F37" s="94"/>
       <c r="G37" s="94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" s="94"/>
       <c r="I37" s="178"/>
       <c r="J37" s="166"/>
     </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="99"/>
       <c r="B38" s="151"/>
       <c r="C38" s="151" t="s">
@@ -4115,15 +4041,15 @@
       <c r="G38" s="94"/>
       <c r="H38" s="94"/>
       <c r="I38" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J38" s="166"/>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="99"/>
       <c r="B39" s="151"/>
       <c r="C39" s="156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="168">
@@ -4133,15 +4059,15 @@
       <c r="G39" s="94"/>
       <c r="H39" s="94"/>
       <c r="I39" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J39" s="166"/>
     </row>
-    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="99"/>
       <c r="B40" s="151"/>
       <c r="C40" s="156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="168">
@@ -4151,15 +4077,15 @@
       <c r="G40" s="94"/>
       <c r="H40" s="94"/>
       <c r="I40" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="166"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="99"/>
       <c r="B41" s="151"/>
       <c r="C41" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="168">
@@ -4169,15 +4095,15 @@
       <c r="G41" s="94"/>
       <c r="H41" s="94"/>
       <c r="I41" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="166"/>
     </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="99"/>
       <c r="B42" s="151"/>
       <c r="C42" s="156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="168">
@@ -4187,15 +4113,15 @@
       <c r="G42" s="94"/>
       <c r="H42" s="94"/>
       <c r="I42" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J42" s="166"/>
     </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="99"/>
       <c r="B43" s="151"/>
       <c r="C43" s="156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="94"/>
       <c r="E43" s="168">
@@ -4205,15 +4131,15 @@
       <c r="G43" s="94"/>
       <c r="H43" s="94"/>
       <c r="I43" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J43" s="166"/>
     </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="99"/>
       <c r="B44" s="151"/>
       <c r="C44" s="156" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="94"/>
       <c r="E44" s="176">
@@ -4223,15 +4149,15 @@
       <c r="G44" s="94"/>
       <c r="H44" s="94"/>
       <c r="I44" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J44" s="166"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="99"/>
       <c r="B45" s="151"/>
       <c r="C45" s="156" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="94"/>
       <c r="E45" s="176">
@@ -4241,15 +4167,15 @@
       <c r="G45" s="94"/>
       <c r="H45" s="94"/>
       <c r="I45" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J45" s="166"/>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="99"/>
       <c r="B46" s="151"/>
       <c r="C46" s="156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="94"/>
       <c r="E46" s="176">
@@ -4259,15 +4185,15 @@
       <c r="G46" s="94"/>
       <c r="H46" s="94"/>
       <c r="I46" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" s="166"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="99"/>
       <c r="B47" s="151"/>
       <c r="C47" s="156" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="94"/>
       <c r="E47" s="176">
@@ -4277,15 +4203,15 @@
       <c r="G47" s="94"/>
       <c r="H47" s="94"/>
       <c r="I47" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" s="166"/>
     </row>
-    <row r="48" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="48" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="99"/>
       <c r="B48" s="181"/>
-      <c r="C48" s="206" t="s">
-        <v>76</v>
+      <c r="C48" s="197" t="s">
+        <v>75</v>
       </c>
       <c r="D48" s="179"/>
       <c r="E48" s="176">
@@ -4295,11 +4221,11 @@
       <c r="G48" s="179"/>
       <c r="H48" s="179"/>
       <c r="I48" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" s="180"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="96"/>
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
@@ -4311,7 +4237,7 @@
       <c r="I49" s="96"/>
       <c r="J49" s="96"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="96"/>
       <c r="B50" s="96"/>
       <c r="C50" s="96"/>
@@ -4323,7 +4249,7 @@
       <c r="I50" s="96"/>
       <c r="J50" s="96"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="96"/>
       <c r="B51" s="96"/>
       <c r="C51" s="145"/>
@@ -4335,7 +4261,7 @@
       <c r="I51" s="96"/>
       <c r="J51" s="96"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="96"/>
       <c r="B52" s="96"/>
       <c r="C52" s="146"/>
@@ -4346,7 +4272,7 @@
       <c r="I52" s="96"/>
       <c r="J52" s="96"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="96"/>
       <c r="B53" s="96"/>
       <c r="C53" s="145"/>
@@ -4358,7 +4284,7 @@
       <c r="I53" s="96"/>
       <c r="J53" s="96"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="96"/>
       <c r="B54" s="96"/>
       <c r="C54" s="145"/>
@@ -4370,7 +4296,7 @@
       <c r="I54" s="96"/>
       <c r="J54" s="96"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="96"/>
       <c r="B55" s="96"/>
       <c r="C55" s="145"/>
@@ -4382,7 +4308,7 @@
       <c r="I55" s="96"/>
       <c r="J55" s="96"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="96"/>
       <c r="B56" s="96"/>
       <c r="C56" s="145"/>
@@ -4394,111 +4320,111 @@
       <c r="I56" s="96"/>
       <c r="J56" s="96"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="96"/>
       <c r="C57" s="146"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="96"/>
       <c r="C58" s="146"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C59" s="146"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C60" s="146"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C61" s="146"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C62" s="146"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C63" s="146"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C64" s="146"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="146"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="146"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="146"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="146"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="146"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="146"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="146"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" s="146"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="146"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="146"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="146"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" s="146"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="146"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="146"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="146"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="146"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="146"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="146"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="146"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="146"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="146"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="146"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="146"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="146"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="146"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="146"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="146"/>
     </row>
   </sheetData>
@@ -4507,43 +4433,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4558,30 +4447,30 @@
       <selection activeCell="A27" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="35" customWidth="1"/>
     <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="35" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.25" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="35" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="35" customWidth="1"/>
     <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.375" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.375" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="35"/>
+    <col min="16" max="16" width="2.42578125" style="35" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1"/>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -4599,7 +4488,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
     </row>
-    <row r="4" spans="1:17" s="24" customFormat="1">
+    <row r="4" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="C4" s="81" t="s">
         <v>19</v>
@@ -4611,22 +4500,22 @@
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="81"/>
       <c r="L4" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="81"/>
       <c r="N4" s="81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -4641,7 +4530,7 @@
       <c r="M5" s="40"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4658,10 +4547,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="196" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -4681,10 +4570,10 @@
       <c r="M7" s="40"/>
       <c r="N7" s="93"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1">
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -4706,15 +4595,15 @@
       <c r="M8" s="40"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1">
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="135">
@@ -4730,11 +4619,11 @@
       <c r="M9" s="40"/>
       <c r="N9" s="93"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="97"/>
       <c r="C10" s="94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -4756,16 +4645,16 @@
       <c r="N10" s="118"/>
       <c r="O10" s="96"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="96"/>
       <c r="B11" s="97"/>
       <c r="C11" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="95"/>
       <c r="F11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="98">
         <f>L11</f>
@@ -4779,15 +4668,15 @@
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O11" s="96"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1">
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="96"/>
       <c r="B12" s="97"/>
       <c r="C12" s="94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -4802,11 +4691,11 @@
       <c r="N12" s="118"/>
       <c r="O12" s="96"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
       <c r="B13" s="97"/>
       <c r="C13" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -4822,11 +4711,11 @@
       <c r="N13" s="118"/>
       <c r="O13" s="96"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="97"/>
       <c r="C14" s="94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4839,16 +4728,16 @@
       <c r="N14" s="118"/>
       <c r="O14" s="96"/>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
       <c r="C15" s="195" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="98">
@@ -4861,15 +4750,15 @@
         <v>50</v>
       </c>
       <c r="N15" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O15" s="96"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1">
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
       <c r="C16" s="195" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4884,15 +4773,15 @@
         <v>0</v>
       </c>
       <c r="N16" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O16" s="96"/>
     </row>
-    <row r="17" spans="1:15" ht="17" thickBot="1">
+    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
       <c r="C17" s="195" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -4907,15 +4796,15 @@
         <v>0</v>
       </c>
       <c r="N17" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O17" s="96"/>
     </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1">
+    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
       <c r="C18" s="195" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -4930,11 +4819,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O18" s="96"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="96"/>
       <c r="B19" s="97"/>
       <c r="C19" s="94"/>
@@ -4947,7 +4836,7 @@
       <c r="N19" s="118"/>
       <c r="O19" s="96"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="96"/>
       <c r="B20" s="97"/>
       <c r="C20" s="94"/>
@@ -4960,7 +4849,7 @@
       <c r="N20" s="118"/>
       <c r="O20" s="96"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="H21" s="41"/>
       <c r="I21" s="94"/>
@@ -4970,7 +4859,7 @@
       <c r="M21" s="40"/>
       <c r="N21" s="118"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="96"/>
       <c r="B22" s="97"/>
       <c r="C22" s="31"/>
@@ -4983,7 +4872,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1">
+    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="96"/>
       <c r="B23" s="97"/>
       <c r="C23" s="12" t="s">
@@ -4998,11 +4887,11 @@
       <c r="M23" s="103"/>
       <c r="N23" s="93"/>
     </row>
-    <row r="24" spans="1:15" ht="17" thickBot="1">
+    <row r="24" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
       <c r="C24" s="193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="101"/>
@@ -5021,14 +4910,14 @@
       <c r="K24" s="103"/>
       <c r="N24" s="93"/>
     </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1">
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
       <c r="C25" s="194" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="106">
         <f t="shared" si="0"/>
@@ -5041,17 +4930,17 @@
       <c r="L25" s="103"/>
       <c r="M25" s="103"/>
       <c r="N25" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="17" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
       <c r="C26" s="194" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="136">
         <f t="shared" si="0"/>
@@ -5064,14 +4953,14 @@
       <c r="L26" s="103"/>
       <c r="M26" s="103"/>
       <c r="N26" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
       <c r="C27" s="184" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="122"/>
       <c r="E27" s="122"/>
@@ -5090,14 +4979,14 @@
       <c r="K27" s="125"/>
       <c r="M27" s="122"/>
       <c r="N27" s="126" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="17" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
       <c r="C28" s="184" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="122"/>
@@ -5116,14 +5005,14 @@
       <c r="K28" s="125"/>
       <c r="M28" s="122"/>
       <c r="N28" s="126" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
       <c r="C29" s="184" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="121" t="s">
         <v>20</v>
@@ -5141,16 +5030,16 @@
       <c r="M29" s="100"/>
       <c r="N29" s="110"/>
     </row>
-    <row r="30" spans="1:15" ht="17" thickBot="1">
+    <row r="30" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
       <c r="C30" s="185" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
       <c r="F30" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="122"/>
       <c r="H30" s="124">
@@ -5164,10 +5053,10 @@
       <c r="K30" s="125"/>
       <c r="M30" s="122"/>
       <c r="N30" s="118" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="122"/>
       <c r="B31" s="123"/>
       <c r="C31" s="186"/>
@@ -5175,14 +5064,14 @@
       <c r="J31" s="41"/>
       <c r="N31" s="44"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="38"/>
       <c r="C32" s="186"/>
       <c r="H32" s="41"/>
       <c r="J32" s="41"/>
       <c r="N32" s="93"/>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1">
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="96"/>
       <c r="B33" s="97"/>
       <c r="C33" s="31" t="s">
@@ -5197,7 +5086,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="118"/>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1">
+    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
       <c r="C34" s="189" t="s">
@@ -5220,11 +5109,11 @@
       <c r="M34" s="104"/>
       <c r="N34" s="118"/>
     </row>
-    <row r="35" spans="1:14" ht="17" thickBot="1">
+    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
       <c r="C35" s="190" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="102" t="s">
         <v>1</v>
@@ -5240,17 +5129,17 @@
       </c>
       <c r="M35" s="104"/>
       <c r="N35" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
       <c r="C36" s="191" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="106">
         <f t="shared" ref="H36:H46" si="1">L36</f>
@@ -5263,10 +5152,10 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="96"/>
       <c r="B37" s="97"/>
       <c r="C37" s="192" t="s">
@@ -5282,14 +5171,14 @@
         <v>0</v>
       </c>
       <c r="N37" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="96"/>
       <c r="B38" s="97"/>
       <c r="C38" s="187" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H38" s="106">
         <f t="shared" si="1"/>
@@ -5300,14 +5189,14 @@
         <v>0</v>
       </c>
       <c r="N38" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
       <c r="C39" s="187" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="106">
         <f t="shared" si="1"/>
@@ -5318,14 +5207,14 @@
         <v>0</v>
       </c>
       <c r="N39" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
       <c r="C40" s="187" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="106">
         <f t="shared" si="1"/>
@@ -5336,14 +5225,14 @@
         <v>0</v>
       </c>
       <c r="N40" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
       <c r="C41" s="187" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" s="106">
         <f t="shared" si="1"/>
@@ -5354,14 +5243,14 @@
         <v>0</v>
       </c>
       <c r="N41" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
       <c r="C42" s="187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="106">
         <f t="shared" si="1"/>
@@ -5372,12 +5261,12 @@
         <v>0</v>
       </c>
       <c r="N42" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H43" s="106">
         <f t="shared" si="1"/>
@@ -5387,12 +5276,12 @@
         <v>1</v>
       </c>
       <c r="N43" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="106">
         <f t="shared" si="1"/>
@@ -5402,12 +5291,12 @@
         <v>1</v>
       </c>
       <c r="N44" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H45" s="106">
         <f t="shared" si="1"/>
@@ -5417,12 +5306,12 @@
         <v>1</v>
       </c>
       <c r="N45" s="118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H46" s="106">
         <f t="shared" si="1"/>
@@ -5432,17 +5321,12 @@
         <v>1</v>
       </c>
       <c r="N46" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5457,22 +5341,22 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="48"/>
+    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -5483,7 +5367,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="50"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5496,7 +5380,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -5507,7 +5391,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="14" t="s">
         <v>16</v>
@@ -5522,19 +5406,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5545,16 +5429,16 @@
       <c r="I6" s="17"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="133" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="47">
         <v>2015</v>
@@ -5566,16 +5450,16 @@
         <v>42558</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -5585,7 +5469,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="96" t="s">
         <v>24</v>
@@ -5597,10 +5481,10 @@
       <c r="H9" s="90"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5610,10 +5494,10 @@
       <c r="I10" s="87"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99"/>
@@ -5623,10 +5507,10 @@
       <c r="I11" s="47"/>
       <c r="J11" s="99"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5636,7 +5520,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="109"/>
       <c r="D13" s="47"/>
@@ -5647,7 +5531,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="96"/>
       <c r="D14" s="113"/>
@@ -5658,7 +5542,7 @@
       <c r="I14" s="99"/>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="E15" s="92"/>
       <c r="F15" s="47"/>
@@ -5667,7 +5551,7 @@
       <c r="I15" s="99"/>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="132"/>
       <c r="D16" s="96"/>
@@ -5678,22 +5562,22 @@
       <c r="I16" s="99"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="131"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="96"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="139"/>
       <c r="D19" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="142" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="142" t="s">
-        <v>117</v>
       </c>
       <c r="F19" s="48">
         <v>2015</v>
@@ -5705,10 +5589,10 @@
         <v>42612</v>
       </c>
       <c r="J19" s="143" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="109"/>
       <c r="D20" s="47"/>
@@ -5719,16 +5603,16 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="140" t="s">
-        <v>113</v>
-      </c>
       <c r="E21" s="140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="47">
         <v>2013</v>
@@ -5740,13 +5624,13 @@
         <v>42612</v>
       </c>
       <c r="I21" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="141" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -5756,11 +5640,11 @@
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H30" s="144"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
     <hyperlink ref="J21" r:id="rId2"/>
@@ -5768,11 +5652,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5787,23 +5666,23 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="57" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
     <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="57"/>
-    <col min="14" max="14" width="15.75" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="57"/>
-    <col min="16" max="16" width="54.75" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="57"/>
+    <col min="5" max="5" width="13.140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="57" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="57"/>
+    <col min="14" max="14" width="15.7109375" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="57"/>
+    <col min="16" max="16" width="54.7109375" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -5818,14 +5697,14 @@
       <c r="M2" s="59"/>
       <c r="N2" s="60"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="B3" s="83"/>
       <c r="C3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>25</v>
@@ -5840,7 +5719,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="84"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -5856,7 +5735,7 @@
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="63"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -5871,7 +5750,7 @@
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="63"/>
       <c r="D6" s="64"/>
       <c r="G6" s="64"/>
@@ -5884,7 +5763,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="63"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
@@ -5899,7 +5778,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -5914,7 +5793,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
@@ -5930,7 +5809,7 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -5946,7 +5825,7 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -5962,7 +5841,7 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -5978,7 +5857,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="63"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -5994,7 +5873,7 @@
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="63"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -6010,7 +5889,7 @@
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="63"/>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -6024,10 +5903,10 @@
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
       <c r="C16" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -6042,7 +5921,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -6050,10 +5929,10 @@
         <v>2190</v>
       </c>
       <c r="F17" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>130</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>131</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
@@ -6063,12 +5942,12 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="G18" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
@@ -6078,7 +5957,7 @@
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -6094,7 +5973,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="63"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -6110,7 +5989,7 @@
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="63"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -6126,7 +6005,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="63"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -6142,7 +6021,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="63"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -6158,10 +6037,10 @@
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="63"/>
       <c r="C24" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="64">
         <v>89</v>
@@ -6178,7 +6057,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="63"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
@@ -6194,7 +6073,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="63"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -6210,7 +6089,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -6226,7 +6105,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="64"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
@@ -6242,7 +6121,7 @@
       <c r="N28" s="64"/>
       <c r="O28" s="64"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -6258,7 +6137,7 @@
       <c r="N29" s="64"/>
       <c r="O29" s="64"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
@@ -6267,10 +6146,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="64"/>
       <c r="I30" s="64"/>
@@ -6281,7 +6160,7 @@
       <c r="N30" s="64"/>
       <c r="O30" s="64"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
@@ -6297,7 +6176,7 @@
       <c r="N31" s="64"/>
       <c r="O31" s="64"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -6313,7 +6192,7 @@
       <c r="N32" s="64"/>
       <c r="O32" s="64"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="63"/>
       <c r="C33" s="64"/>
       <c r="E33" s="64"/>
@@ -6328,7 +6207,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="64"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="E34" s="64"/>
       <c r="H34" s="64"/>
@@ -6340,7 +6219,7 @@
       <c r="N34" s="64"/>
       <c r="O34" s="64"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -6356,7 +6235,7 @@
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -6372,7 +6251,7 @@
       <c r="N36" s="64"/>
       <c r="O36" s="64"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
@@ -6388,7 +6267,7 @@
       <c r="N37" s="64"/>
       <c r="O37" s="64"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
@@ -6402,7 +6281,7 @@
       <c r="N38" s="64"/>
       <c r="O38" s="64"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="63"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
@@ -6411,7 +6290,7 @@
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="127"/>
       <c r="I39" s="127"/>
@@ -6422,7 +6301,7 @@
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
@@ -6438,7 +6317,7 @@
       <c r="N40" s="64"/>
       <c r="O40" s="64"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="63"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
@@ -6454,7 +6333,7 @@
       <c r="N41" s="64"/>
       <c r="O41" s="64"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="K42" s="64"/>
@@ -6463,7 +6342,7 @@
       <c r="N42" s="64"/>
       <c r="O42" s="64"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="63"/>
       <c r="C43" s="64"/>
       <c r="K43" s="64"/>
@@ -6472,7 +6351,7 @@
       <c r="N43" s="64"/>
       <c r="O43" s="64"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="63"/>
       <c r="C44" s="64"/>
       <c r="K44" s="64"/>
@@ -6481,7 +6360,7 @@
       <c r="N44" s="64"/>
       <c r="O44" s="64"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="63"/>
       <c r="C45" s="64"/>
       <c r="K45" s="64"/>
@@ -6490,7 +6369,7 @@
       <c r="N45" s="64"/>
       <c r="O45" s="64"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="63"/>
       <c r="C46" s="64"/>
       <c r="E46" s="89"/>
@@ -6501,7 +6380,7 @@
       <c r="N46" s="64"/>
       <c r="O46" s="64"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="63"/>
       <c r="C47" s="64"/>
       <c r="E47" s="64"/>
@@ -6512,14 +6391,14 @@
       <c r="N47" s="64"/>
       <c r="O47" s="64"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="63"/>
       <c r="C48" s="64"/>
       <c r="E48" s="57">
         <v>60</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
@@ -6527,7 +6406,7 @@
       <c r="N48" s="64"/>
       <c r="O48" s="64"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="63"/>
       <c r="C49" s="64"/>
       <c r="E49" s="57">
@@ -6546,7 +6425,7 @@
       <c r="N49" s="64"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="63"/>
       <c r="C50" s="64"/>
       <c r="J50"/>
@@ -6556,7 +6435,7 @@
       <c r="N50" s="64"/>
       <c r="O50" s="64"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="63"/>
       <c r="D51" s="64"/>
       <c r="K51" s="64"/>
@@ -6565,7 +6444,7 @@
       <c r="N51" s="64"/>
       <c r="O51" s="64"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="63"/>
       <c r="C52" s="64"/>
       <c r="D52" s="64"/>
@@ -6573,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K52" s="64"/>
       <c r="L52" s="64"/>
@@ -6581,7 +6460,7 @@
       <c r="N52" s="64"/>
       <c r="O52" s="64"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
@@ -6593,7 +6472,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
@@ -6601,7 +6480,7 @@
       <c r="N53" s="64"/>
       <c r="O53" s="64"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="63"/>
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
@@ -6609,7 +6488,7 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
@@ -6617,7 +6496,7 @@
       <c r="N54" s="64"/>
       <c r="O54" s="64"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="63"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -6629,7 +6508,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K55" s="64"/>
       <c r="L55" s="64"/>
@@ -6637,7 +6516,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="64"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="63"/>
       <c r="C56" s="64"/>
       <c r="E56" s="57">
@@ -6645,10 +6524,10 @@
         <v>25</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K56" s="64"/>
       <c r="L56" s="64"/>
@@ -6656,14 +6535,14 @@
       <c r="N56" s="64"/>
       <c r="O56" s="64"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="63"/>
       <c r="C57" s="64"/>
       <c r="E57" s="57">
         <v>15</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G57" s="57" t="s">
         <v>24</v>
@@ -6674,7 +6553,7 @@
       <c r="N57" s="64"/>
       <c r="O57" s="64"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="63"/>
       <c r="C58" s="64"/>
       <c r="K58" s="64"/>
@@ -6683,7 +6562,7 @@
       <c r="N58" s="64"/>
       <c r="O58" s="64"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="63"/>
       <c r="C59" s="64"/>
       <c r="K59" s="64"/>
@@ -6692,7 +6571,7 @@
       <c r="N59" s="64"/>
       <c r="O59" s="64"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="63"/>
       <c r="C60" s="64"/>
       <c r="K60" s="64"/>
@@ -6701,7 +6580,7 @@
       <c r="N60" s="64"/>
       <c r="O60" s="64"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="63"/>
       <c r="C61" s="64"/>
       <c r="K61" s="64"/>
@@ -6710,7 +6589,7 @@
       <c r="N61" s="64"/>
       <c r="O61" s="64"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="63"/>
       <c r="C62" s="64"/>
       <c r="K62" s="64"/>
@@ -6719,7 +6598,7 @@
       <c r="N62" s="64"/>
       <c r="O62" s="64"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="63"/>
       <c r="C63" s="64"/>
       <c r="K63" s="64"/>
@@ -6728,7 +6607,7 @@
       <c r="N63" s="64"/>
       <c r="O63" s="64"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="63"/>
       <c r="C64" s="64"/>
       <c r="K64" s="64"/>
@@ -6737,7 +6616,7 @@
       <c r="N64" s="64"/>
       <c r="O64" s="64"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="63"/>
       <c r="C65" s="64"/>
       <c r="K65" s="64"/>
@@ -6746,7 +6625,7 @@
       <c r="N65" s="64"/>
       <c r="O65" s="64"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="63"/>
       <c r="C66" s="64"/>
       <c r="K66" s="64"/>
@@ -6755,7 +6634,7 @@
       <c r="N66" s="64"/>
       <c r="O66" s="64"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="63"/>
       <c r="C67" s="64"/>
       <c r="K67" s="64"/>
@@ -6764,7 +6643,7 @@
       <c r="N67" s="64"/>
       <c r="O67" s="64"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="63"/>
       <c r="C68" s="64"/>
       <c r="K68" s="64"/>
@@ -6773,7 +6652,7 @@
       <c r="N68" s="64"/>
       <c r="O68" s="64"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="63"/>
       <c r="C69" s="64"/>
       <c r="K69" s="64"/>
@@ -6782,7 +6661,7 @@
       <c r="N69" s="64"/>
       <c r="O69" s="64"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="63"/>
       <c r="C70" s="64"/>
       <c r="K70" s="64"/>
@@ -6791,457 +6670,457 @@
       <c r="N70" s="64"/>
       <c r="O70" s="64"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="63"/>
       <c r="N71" s="64"/>
       <c r="O71" s="64"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="63"/>
       <c r="N72" s="64"/>
       <c r="O72" s="64"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="63"/>
       <c r="N73" s="64"/>
       <c r="O73" s="64"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="63"/>
       <c r="C74" s="142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N74" s="64"/>
       <c r="O74" s="64"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="63"/>
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
       <c r="N75" s="64"/>
       <c r="O75" s="64"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="63"/>
       <c r="C76" s="64"/>
       <c r="N76" s="64"/>
       <c r="O76" s="64"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="63"/>
       <c r="E77" s="128"/>
       <c r="N77" s="64"/>
       <c r="O77" s="64"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="63"/>
       <c r="E78" s="57">
         <v>50</v>
       </c>
       <c r="F78" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G78" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N78" s="64"/>
       <c r="O78" s="64"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="63"/>
       <c r="N79" s="64"/>
       <c r="O79" s="64"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="63"/>
       <c r="F80" s="111"/>
       <c r="N80" s="64"/>
       <c r="O80" s="64"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="63"/>
       <c r="N81" s="64"/>
       <c r="O81" s="64"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="63"/>
       <c r="N82" s="64"/>
       <c r="O82" s="64"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="63"/>
       <c r="N83" s="64"/>
       <c r="O83" s="64"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="63"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="63"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="63"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="63"/>
       <c r="C87" s="64"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="63"/>
       <c r="C88" s="64"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="63"/>
       <c r="C89" s="64"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="63"/>
       <c r="C90" s="64"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="63"/>
       <c r="C91" s="64"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="63"/>
       <c r="C92" s="64"/>
       <c r="E92" s="112"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="63"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="63"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="63"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="63"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="63"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="63"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="63"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="63"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="63"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="63"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="63"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="63"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="63"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="63"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="63"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="63"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="63"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="63"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="63"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="63"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="63"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="63"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="63"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="63"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="63"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="63"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="63"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="63"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="63"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="63"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="63"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="63"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="63"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="63"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="63"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="63"/>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="63"/>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="63"/>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="63"/>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="63"/>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="63"/>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="63"/>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="63"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="63"/>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="63"/>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="63"/>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="63"/>
       <c r="C140" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D140" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="63"/>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="63"/>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="63"/>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="63"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="127"/>
       <c r="B145" s="129"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="127"/>
       <c r="B146" s="129"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="127"/>
       <c r="B147" s="129"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="127"/>
       <c r="B148" s="129"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="127"/>
       <c r="B149" s="129"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="127"/>
       <c r="B150" s="129"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="127"/>
       <c r="B151" s="129"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="127"/>
       <c r="B152" s="129"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="127"/>
       <c r="B153" s="129"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="127"/>
       <c r="B154" s="129"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="127"/>
       <c r="B155" s="129"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="127"/>
       <c r="B156" s="129"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="127"/>
       <c r="B157" s="129"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="127"/>
       <c r="B158" s="129"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="127"/>
       <c r="B159" s="129"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="127"/>
       <c r="B160" s="129"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="127"/>
       <c r="B161" s="129"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="127"/>
       <c r="B162" s="129"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="127"/>
       <c r="B163" s="129"/>
       <c r="E163" s="57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="127"/>
       <c r="B164" s="129"/>
       <c r="E164" s="57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="127"/>
       <c r="B165" s="129"/>
       <c r="E165" s="57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="127"/>
       <c r="B166" s="129"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="127"/>
       <c r="B167" s="129"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="127"/>
       <c r="B168" s="129"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="127"/>
       <c r="B169" s="129"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="127"/>
       <c r="B170" s="129"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="127"/>
       <c r="B171" s="129"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="127"/>
       <c r="B172" s="129"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="127"/>
       <c r="B173" s="129"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="127"/>
       <c r="B174" s="129"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="127"/>
       <c r="B175" s="129"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="127"/>
       <c r="B176" s="129"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="127"/>
       <c r="B177" s="129"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="127"/>
       <c r="B178" s="129"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="127"/>
       <c r="B179" s="129"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="127"/>
       <c r="B180" s="129"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="127"/>
       <c r="B181" s="129"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="127"/>
       <c r="B182" s="129"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="127"/>
       <c r="B183" s="129"/>
       <c r="C183" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="127"/>
       <c r="B184" s="129"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="127"/>
       <c r="B185" s="129"/>
       <c r="E185" s="57">
@@ -7249,29 +7128,29 @@
         <v>50</v>
       </c>
       <c r="F185" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G185" s="57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="127"/>
       <c r="B186" s="129"/>
       <c r="E186" s="57">
         <v>1</v>
       </c>
       <c r="F186" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G186" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="I186" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G186" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I186" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="127"/>
       <c r="B187" s="129"/>
       <c r="E187" s="57">
@@ -7279,229 +7158,229 @@
         <v>50</v>
       </c>
       <c r="F187" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G187" s="57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="127"/>
       <c r="B188" s="129"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="127"/>
       <c r="B189" s="129"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="127"/>
       <c r="B190" s="129"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="127"/>
       <c r="B191" s="129"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="127"/>
       <c r="B192" s="129"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="127"/>
       <c r="B193" s="129"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="127"/>
       <c r="B194" s="129"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="127"/>
       <c r="B195" s="129"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="127"/>
       <c r="B196" s="129"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="127"/>
       <c r="B197" s="129"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="127"/>
       <c r="B198" s="129"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="127"/>
       <c r="B199" s="129"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="127"/>
       <c r="B200" s="129"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="127"/>
       <c r="B201" s="129"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="127"/>
       <c r="B202" s="129"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="127"/>
       <c r="B203" s="129"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="127"/>
       <c r="B204" s="129"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="127"/>
       <c r="B205" s="129"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="127"/>
       <c r="B206" s="129"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="127"/>
       <c r="B207" s="129"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="127"/>
       <c r="B208" s="129"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="127"/>
       <c r="B209" s="129"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="127"/>
       <c r="B210" s="129"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="127"/>
       <c r="B211" s="129"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="127"/>
       <c r="B212" s="129"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="127"/>
       <c r="B213" s="129"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="127"/>
       <c r="B214" s="129"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="127"/>
       <c r="B215" s="129"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="127"/>
       <c r="B216" s="129"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="127"/>
       <c r="B217" s="129"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="127"/>
       <c r="B218" s="129"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="127"/>
       <c r="B219" s="129"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="127"/>
       <c r="B220" s="129"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="127"/>
       <c r="B221" s="129"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="127"/>
       <c r="B222" s="129"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="127"/>
       <c r="B223" s="129"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="127"/>
       <c r="B224" s="129"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="127"/>
       <c r="B225" s="129"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="127"/>
       <c r="B226" s="129"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="127"/>
       <c r="B227" s="129"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="127"/>
       <c r="B228" s="129"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="127"/>
       <c r="B229" s="129"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="127"/>
       <c r="B230" s="129"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="127"/>
       <c r="B231" s="129"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="127"/>
       <c r="B232" s="129"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="127"/>
       <c r="B233" s="129"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="127"/>
       <c r="B234" s="129"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="127"/>
       <c r="B235" s="129"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="127"/>
       <c r="B236" s="129"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="127"/>
       <c r="B237" s="129"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="127"/>
       <c r="B238" s="129"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="127"/>
       <c r="B239" s="129"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="127"/>
       <c r="B240" s="129"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="127"/>
       <c r="B241" s="129"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="127"/>
       <c r="B242" s="129"/>
     </row>
@@ -7509,10 +7388,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_chemicals_other_flexibility_p2h_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_other_flexibility_p2h_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A112E17-D2DA-B846-995D-D7B0C66CAE14}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>Source</t>
   </si>
@@ -602,18 +603,6 @@
     <t>electricity_output_capacity</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial investment costs </t>
   </si>
   <si>
@@ -630,13 +619,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,6 +827,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,6 +835,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,6 +843,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,17 +851,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,12 +872,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -898,11 +895,13 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1687,7 +1686,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1948,9 +1947,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2488,13 +2484,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2512,7 +2511,13 @@
     <xdr:ext cx="3632200" cy="927100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2573,7 +2578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2611,7 +2622,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2649,7 +2666,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2687,7 +2710,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3208,40 +3237,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="27" customFormat="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3250,7 +3279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
@@ -3259,7 +3288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3268,29 +3297,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="68"/>
       <c r="C10" s="69"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="68" t="s">
         <v>27</v>
@@ -3299,33 +3328,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="68"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="68"/>
       <c r="C14" s="69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="68"/>
       <c r="C15" s="69"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="68" t="s">
         <v>32</v>
@@ -3334,49 +3363,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="68"/>
       <c r="C17" s="73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="68"/>
       <c r="C18" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="68"/>
       <c r="C19" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="76"/>
       <c r="C21" s="78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="76"/>
       <c r="C22" s="79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="76"/>
       <c r="C23" s="80" t="s">
         <v>40</v>
@@ -3389,79 +3418,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="2" width="3.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="200"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="197" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="200"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="200"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="204"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="203"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="157"/>
       <c r="C8" s="158"/>
       <c r="D8" s="159"/>
@@ -3472,7 +3500,7 @@
       <c r="I8" s="159"/>
       <c r="J8" s="160"/>
     </row>
-    <row r="9" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="24" customFormat="1">
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
         <v>19</v>
@@ -3493,7 +3521,7 @@
       </c>
       <c r="J9" s="161"/>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="24" customFormat="1">
       <c r="B10" s="162"/>
       <c r="C10" s="162"/>
       <c r="D10" s="19"/>
@@ -3504,7 +3532,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="163"/>
     </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="162"/>
       <c r="C11" s="162" t="s">
         <v>44</v>
@@ -3517,7 +3545,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="163"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="24"/>
       <c r="B12" s="162"/>
       <c r="C12" s="147" t="s">
@@ -3539,7 +3567,7 @@
       <c r="J12" s="163"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="24"/>
       <c r="B13" s="162"/>
       <c r="C13" s="148" t="s">
@@ -3563,7 +3591,7 @@
       <c r="J13" s="163"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="96"/>
       <c r="B14" s="151"/>
       <c r="C14" s="149" t="s">
@@ -3587,7 +3615,7 @@
       <c r="J14" s="166"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="151"/>
       <c r="C15" s="150" t="s">
@@ -3607,7 +3635,7 @@
       <c r="J15" s="166"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="151"/>
       <c r="C16" s="151" t="s">
         <v>56</v>
@@ -3627,7 +3655,7 @@
       </c>
       <c r="J16" s="166"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" thickBot="1">
       <c r="B17" s="151"/>
       <c r="C17" s="151" t="s">
         <v>57</v>
@@ -3646,7 +3674,7 @@
       </c>
       <c r="J17" s="166"/>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="17" thickBot="1">
       <c r="B18" s="151"/>
       <c r="C18" s="156" t="s">
         <v>140</v>
@@ -3665,7 +3693,7 @@
       </c>
       <c r="J18" s="166"/>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="B19" s="151"/>
       <c r="C19" s="156" t="s">
         <v>58</v>
@@ -3684,7 +3712,7 @@
       </c>
       <c r="J19" s="166"/>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17" thickBot="1">
       <c r="B20" s="151"/>
       <c r="C20" s="156" t="s">
         <v>59</v>
@@ -3703,7 +3731,7 @@
       </c>
       <c r="J20" s="166"/>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="17" thickBot="1">
       <c r="B21" s="151"/>
       <c r="C21" s="156" t="s">
         <v>144</v>
@@ -3722,7 +3750,7 @@
       </c>
       <c r="J21" s="166"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="B22" s="152"/>
       <c r="C22" s="152"/>
       <c r="D22" s="34"/>
@@ -3733,7 +3761,7 @@
       <c r="I22" s="34"/>
       <c r="J22" s="170"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17" thickBot="1">
       <c r="B23" s="152"/>
       <c r="C23" s="162" t="s">
         <v>43</v>
@@ -3746,7 +3774,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="170"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" thickBot="1">
       <c r="B24" s="152"/>
       <c r="C24" s="152" t="s">
         <v>22</v>
@@ -3768,7 +3796,7 @@
       </c>
       <c r="J24" s="170"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B25" s="152"/>
       <c r="C25" s="152" t="s">
         <v>23</v>
@@ -3790,7 +3818,7 @@
       </c>
       <c r="J25" s="170"/>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="B26" s="172"/>
       <c r="C26" s="153" t="s">
         <v>87</v>
@@ -3812,7 +3840,7 @@
       </c>
       <c r="J26" s="173"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17" thickBot="1">
       <c r="B27" s="172"/>
       <c r="C27" s="153" t="s">
         <v>85</v>
@@ -3832,7 +3860,7 @@
       </c>
       <c r="J27" s="173"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="B28" s="172"/>
       <c r="C28" s="153" t="s">
         <v>86</v>
@@ -3852,7 +3880,7 @@
       </c>
       <c r="J28" s="173"/>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="17" thickBot="1">
       <c r="B29" s="172"/>
       <c r="C29" s="154" t="s">
         <v>97</v>
@@ -3872,7 +3900,7 @@
       </c>
       <c r="J29" s="173"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="B30" s="172"/>
       <c r="C30" s="153" t="s">
         <v>88</v>
@@ -3892,7 +3920,7 @@
       </c>
       <c r="J30" s="173"/>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="96"/>
       <c r="B31" s="151"/>
       <c r="C31" s="151" t="s">
@@ -3914,7 +3942,7 @@
       </c>
       <c r="J31" s="166"/>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="96"/>
       <c r="B32" s="151"/>
       <c r="C32" s="151" t="s">
@@ -3934,7 +3962,7 @@
       </c>
       <c r="J32" s="166"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="96"/>
       <c r="B33" s="151"/>
       <c r="C33" s="151"/>
@@ -3946,7 +3974,7 @@
       <c r="I33" s="94"/>
       <c r="J33" s="166"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="151"/>
       <c r="C34" s="162" t="s">
@@ -3960,7 +3988,7 @@
       <c r="I34" s="94"/>
       <c r="J34" s="166"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="151"/>
       <c r="C35" s="151" t="s">
@@ -3983,7 +4011,7 @@
       </c>
       <c r="J35" s="166"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="151"/>
       <c r="C36" s="151" t="s">
@@ -4004,7 +4032,7 @@
       <c r="I36" s="176"/>
       <c r="J36" s="166"/>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="151"/>
       <c r="C37" s="151" t="s">
@@ -4025,7 +4053,7 @@
       <c r="I37" s="178"/>
       <c r="J37" s="166"/>
     </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A38" s="99"/>
       <c r="B38" s="151"/>
       <c r="C38" s="151" t="s">
@@ -4045,7 +4073,7 @@
       </c>
       <c r="J38" s="166"/>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A39" s="99"/>
       <c r="B39" s="151"/>
       <c r="C39" s="156" t="s">
@@ -4063,15 +4091,15 @@
       </c>
       <c r="J39" s="166"/>
     </row>
-    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A40" s="99"/>
       <c r="B40" s="151"/>
       <c r="C40" s="156" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="168">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="176">
+        <v>0</v>
       </c>
       <c r="F40" s="94"/>
       <c r="G40" s="94"/>
@@ -4081,15 +4109,15 @@
       </c>
       <c r="J40" s="166"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A41" s="99"/>
       <c r="B41" s="151"/>
       <c r="C41" s="156" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="168">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="176">
+        <v>0</v>
       </c>
       <c r="F41" s="94"/>
       <c r="G41" s="94"/>
@@ -4099,15 +4127,15 @@
       </c>
       <c r="J41" s="166"/>
     </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A42" s="99"/>
       <c r="B42" s="151"/>
       <c r="C42" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="168">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="176">
+        <v>0</v>
       </c>
       <c r="F42" s="94"/>
       <c r="G42" s="94"/>
@@ -4117,15 +4145,15 @@
       </c>
       <c r="J42" s="166"/>
     </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A43" s="99"/>
       <c r="B43" s="151"/>
       <c r="C43" s="156" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D43" s="94"/>
-      <c r="E43" s="168">
-        <v>1</v>
+      <c r="E43" s="176">
+        <v>0</v>
       </c>
       <c r="F43" s="94"/>
       <c r="G43" s="94"/>
@@ -4135,100 +4163,75 @@
       </c>
       <c r="J43" s="166"/>
     </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A44" s="99"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="94"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="196" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="179"/>
       <c r="E44" s="176">
         <v>0</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
       <c r="I44" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="J44" s="166"/>
-    </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="176">
-        <v>0</v>
-      </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J45" s="166"/>
-    </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="156" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="176">
-        <v>0</v>
-      </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="166"/>
-    </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="176">
-        <v>0</v>
-      </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="166"/>
-    </row>
-    <row r="48" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="179"/>
-      <c r="E48" s="176">
-        <v>0</v>
-      </c>
-      <c r="F48" s="179"/>
-      <c r="G48" s="179"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J48" s="180"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="180"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="146"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="96"/>
       <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="96"/>
       <c r="E49" s="96"/>
       <c r="F49" s="96"/>
@@ -4237,10 +4240,10 @@
       <c r="I49" s="96"/>
       <c r="J49" s="96"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="96"/>
       <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="96"/>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
@@ -4249,7 +4252,7 @@
       <c r="I50" s="96"/>
       <c r="J50" s="96"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="96"/>
       <c r="B51" s="96"/>
       <c r="C51" s="145"/>
@@ -4261,10 +4264,11 @@
       <c r="I51" s="96"/>
       <c r="J51" s="96"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="96"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="146"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="96"/>
       <c r="F52" s="96"/>
       <c r="G52" s="96"/>
@@ -4272,160 +4276,112 @@
       <c r="I52" s="96"/>
       <c r="J52" s="96"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="146"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="96"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="96"/>
+      <c r="C54" s="146"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="C55" s="146"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="C56" s="146"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="C57" s="146"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="96"/>
+    <row r="58" spans="1:10">
       <c r="C58" s="146"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="C59" s="146"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="C60" s="146"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="C61" s="146"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="C62" s="146"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="C63" s="146"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="C64" s="146"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="146"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="146"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3">
       <c r="C67" s="146"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="146"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3">
       <c r="C69" s="146"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3">
       <c r="C70" s="146"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3">
       <c r="C71" s="146"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3">
       <c r="C72" s="146"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3">
       <c r="C73" s="146"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3">
       <c r="C74" s="146"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3">
       <c r="C75" s="146"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3">
       <c r="C76" s="146"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3">
       <c r="C77" s="146"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3">
       <c r="C78" s="146"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3">
       <c r="C79" s="146"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3">
       <c r="C80" s="146"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3">
       <c r="C81" s="146"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3">
       <c r="C82" s="146"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3">
       <c r="C83" s="146"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3">
       <c r="C84" s="146"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3">
       <c r="C85" s="146"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3">
       <c r="C86" s="146"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3">
       <c r="C87" s="146"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="146"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="146"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="146"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4437,40 +4393,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:Q46"/>
+  <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="35" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="35" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="35" customWidth="1"/>
     <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="35"/>
+    <col min="16" max="16" width="2.5" style="35" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -4488,7 +4444,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
     </row>
-    <row r="4" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="24" customFormat="1">
       <c r="B4" s="23"/>
       <c r="C4" s="81" t="s">
         <v>19</v>
@@ -4515,7 +4471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="38"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -4530,7 +4486,7 @@
       <c r="M5" s="40"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4547,9 +4503,9 @@
       <c r="M6" s="10"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="38"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="195" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="43"/>
@@ -4570,9 +4526,9 @@
       <c r="M7" s="40"/>
       <c r="N7" s="93"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="38"/>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="195" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="43"/>
@@ -4595,7 +4551,7 @@
       <c r="M8" s="40"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="38"/>
       <c r="C9" s="130" t="s">
         <v>98</v>
@@ -4619,7 +4575,7 @@
       <c r="M9" s="40"/>
       <c r="N9" s="93"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" thickBot="1">
       <c r="A10" s="96"/>
       <c r="B10" s="97"/>
       <c r="C10" s="94" t="s">
@@ -4645,7 +4601,7 @@
       <c r="N10" s="118"/>
       <c r="O10" s="96"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
       <c r="A11" s="96"/>
       <c r="B11" s="97"/>
       <c r="C11" s="117" t="s">
@@ -4672,7 +4628,7 @@
       </c>
       <c r="O11" s="96"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" thickBot="1">
       <c r="A12" s="96"/>
       <c r="B12" s="97"/>
       <c r="C12" s="94" t="s">
@@ -4691,7 +4647,7 @@
       <c r="N12" s="118"/>
       <c r="O12" s="96"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="96"/>
       <c r="B13" s="97"/>
       <c r="C13" s="94" t="s">
@@ -4711,7 +4667,7 @@
       <c r="N13" s="118"/>
       <c r="O13" s="96"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="A14" s="96"/>
       <c r="B14" s="97"/>
       <c r="C14" s="94" t="s">
@@ -4728,10 +4684,10 @@
       <c r="N14" s="118"/>
       <c r="O14" s="96"/>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
-      <c r="C15" s="195" t="s">
+      <c r="C15" s="194" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="12"/>
@@ -4754,10 +4710,10 @@
       </c>
       <c r="O15" s="96"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="194" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="12"/>
@@ -4777,10 +4733,10 @@
       </c>
       <c r="O16" s="96"/>
     </row>
-    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="17" thickBot="1">
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
-      <c r="C17" s="195" t="s">
+      <c r="C17" s="194" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="12"/>
@@ -4800,10 +4756,10 @@
       </c>
       <c r="O17" s="96"/>
     </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
-      <c r="C18" s="195" t="s">
+      <c r="C18" s="194" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="12"/>
@@ -4823,7 +4779,7 @@
       </c>
       <c r="O18" s="96"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="96"/>
       <c r="B19" s="97"/>
       <c r="C19" s="94"/>
@@ -4836,7 +4792,7 @@
       <c r="N19" s="118"/>
       <c r="O19" s="96"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="96"/>
       <c r="B20" s="97"/>
       <c r="C20" s="94"/>
@@ -4849,7 +4805,7 @@
       <c r="N20" s="118"/>
       <c r="O20" s="96"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="B21" s="38"/>
       <c r="H21" s="41"/>
       <c r="I21" s="94"/>
@@ -4859,7 +4815,7 @@
       <c r="M21" s="40"/>
       <c r="N21" s="118"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="96"/>
       <c r="B22" s="97"/>
       <c r="C22" s="31"/>
@@ -4872,7 +4828,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="17" thickBot="1">
       <c r="A23" s="96"/>
       <c r="B23" s="97"/>
       <c r="C23" s="12" t="s">
@@ -4887,11 +4843,11 @@
       <c r="M23" s="103"/>
       <c r="N23" s="93"/>
     </row>
-    <row r="24" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="17" thickBot="1">
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
-      <c r="C24" s="193" t="s">
-        <v>149</v>
+      <c r="C24" s="192" t="s">
+        <v>145</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="101"/>
@@ -4910,11 +4866,11 @@
       <c r="K24" s="103"/>
       <c r="N24" s="93"/>
     </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="17" thickBot="1">
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
-      <c r="C25" s="194" t="s">
-        <v>150</v>
+      <c r="C25" s="193" t="s">
+        <v>146</v>
       </c>
       <c r="F25" s="107" t="s">
         <v>51</v>
@@ -4933,11 +4889,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="17" thickBot="1">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
-      <c r="C26" s="194" t="s">
-        <v>151</v>
+      <c r="C26" s="193" t="s">
+        <v>147</v>
       </c>
       <c r="F26" s="102" t="s">
         <v>60</v>
@@ -4956,7 +4912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="17" thickBot="1">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
       <c r="C27" s="184" t="s">
@@ -4982,7 +4938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
       <c r="C28" s="184" t="s">
@@ -5008,7 +4964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="17" thickBot="1">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
       <c r="C29" s="184" t="s">
@@ -5030,7 +4986,7 @@
       <c r="M29" s="100"/>
       <c r="N29" s="110"/>
     </row>
-    <row r="30" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="17" thickBot="1">
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
       <c r="C30" s="185" t="s">
@@ -5056,7 +5012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="122"/>
       <c r="B31" s="123"/>
       <c r="C31" s="186"/>
@@ -5064,14 +5020,14 @@
       <c r="J31" s="41"/>
       <c r="N31" s="44"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="B32" s="38"/>
       <c r="C32" s="186"/>
       <c r="H32" s="41"/>
       <c r="J32" s="41"/>
       <c r="N32" s="93"/>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17" thickBot="1">
       <c r="A33" s="96"/>
       <c r="B33" s="97"/>
       <c r="C33" s="31" t="s">
@@ -5086,10 +5042,10 @@
       <c r="M33" s="11"/>
       <c r="N33" s="118"/>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="189" t="s">
+      <c r="C34" s="188" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="102" t="s">
@@ -5109,10 +5065,10 @@
       <c r="M34" s="104"/>
       <c r="N34" s="118"/>
     </row>
-    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
-      <c r="C35" s="190" t="s">
+      <c r="C35" s="189" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="102" t="s">
@@ -5132,17 +5088,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
-      <c r="C36" s="191" t="s">
+      <c r="C36" s="190" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="102" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="106">
-        <f t="shared" ref="H36:H46" si="1">L36</f>
+        <f t="shared" ref="H36:H42" si="1">L36</f>
         <v>0</v>
       </c>
       <c r="I36" s="104"/>
@@ -5155,10 +5111,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="97"/>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="191" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
@@ -5174,7 +5130,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="96"/>
       <c r="B38" s="97"/>
       <c r="C38" s="187" t="s">
@@ -5192,7 +5148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="17" thickBot="1">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
       <c r="C39" s="187" t="s">
@@ -5210,7 +5166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="17" thickBot="1">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
       <c r="C40" s="187" t="s">
@@ -5228,7 +5184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="17" thickBot="1">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
       <c r="C41" s="187" t="s">
@@ -5246,7 +5202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="17" thickBot="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
       <c r="C42" s="187" t="s">
@@ -5261,66 +5217,6 @@
         <v>0</v>
       </c>
       <c r="N42" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="188" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="135">
-        <v>1</v>
-      </c>
-      <c r="N43" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="188" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L44" s="135">
-        <v>1</v>
-      </c>
-      <c r="N44" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="188" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L45" s="135">
-        <v>1</v>
-      </c>
-      <c r="N45" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="188" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L46" s="135">
-        <v>1</v>
-      </c>
-      <c r="N46" s="118" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5331,8 +5227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J30"/>
@@ -5341,22 +5237,22 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="48"/>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -5367,7 +5263,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="50"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="51"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5380,7 +5276,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="51"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -5391,7 +5287,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="56"/>
       <c r="C5" s="14" t="s">
         <v>16</v>
@@ -5418,7 +5314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="51"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5429,7 +5325,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="51"/>
       <c r="C7" s="132" t="s">
         <v>106</v>
@@ -5456,7 +5352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="51"/>
       <c r="C8" s="131" t="s">
         <v>102</v>
@@ -5469,7 +5365,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="51"/>
       <c r="C9" s="96" t="s">
         <v>24</v>
@@ -5481,7 +5377,7 @@
       <c r="H9" s="90"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="51"/>
       <c r="C10" s="108" t="s">
         <v>78</v>
@@ -5494,7 +5390,7 @@
       <c r="I10" s="87"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="51"/>
       <c r="C11" s="109" t="s">
         <v>55</v>
@@ -5507,7 +5403,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="99"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="51"/>
       <c r="C12" s="108" t="s">
         <v>80</v>
@@ -5520,7 +5416,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="51"/>
       <c r="C13" s="109"/>
       <c r="D13" s="47"/>
@@ -5531,7 +5427,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="51"/>
       <c r="C14" s="96"/>
       <c r="D14" s="113"/>
@@ -5542,7 +5438,7 @@
       <c r="I14" s="99"/>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="51"/>
       <c r="E15" s="92"/>
       <c r="F15" s="47"/>
@@ -5551,7 +5447,7 @@
       <c r="I15" s="99"/>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="51"/>
       <c r="C16" s="132"/>
       <c r="D16" s="96"/>
@@ -5562,15 +5458,15 @@
       <c r="I16" s="99"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="51"/>
       <c r="C17" s="131"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="51"/>
       <c r="C18" s="96"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="51"/>
       <c r="C19" s="139"/>
       <c r="D19" s="142" t="s">
@@ -5592,7 +5488,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="51"/>
       <c r="C20" s="109"/>
       <c r="D20" s="47"/>
@@ -5603,7 +5499,7 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="51"/>
       <c r="C21" s="139" t="s">
         <v>111</v>
@@ -5630,7 +5526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="51"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -5640,15 +5536,15 @@
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="H30" s="144"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="J21" r:id="rId2"/>
-    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5656,8 +5552,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O242"/>
@@ -5666,23 +5562,22 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="57"/>
-    <col min="14" max="14" width="15.7109375" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="57"/>
-    <col min="16" max="16" width="54.7109375" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="57"/>
+    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="57" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="57"/>
+    <col min="14" max="14" width="15.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="57"/>
+    <col min="16" max="16" width="54.6640625" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" thickBot="1"/>
+    <row r="2" spans="1:15">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -5697,7 +5592,7 @@
       <c r="M2" s="59"/>
       <c r="N2" s="60"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="61"/>
       <c r="B3" s="83"/>
       <c r="C3" s="65" t="s">
@@ -5719,7 +5614,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="84"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -5735,7 +5630,7 @@
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="63"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -5750,7 +5645,7 @@
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="63"/>
       <c r="D6" s="64"/>
       <c r="G6" s="64"/>
@@ -5763,7 +5658,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" s="63"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
@@ -5778,7 +5673,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -5793,7 +5688,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
@@ -5809,7 +5704,7 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -5825,7 +5720,7 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -5841,7 +5736,7 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -5857,7 +5752,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="B13" s="63"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -5873,7 +5768,7 @@
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="63"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -5889,7 +5784,7 @@
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="63"/>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -5903,7 +5798,7 @@
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="63"/>
       <c r="C16" s="64" t="s">
         <v>128</v>
@@ -5921,7 +5816,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -5942,7 +5837,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -5957,7 +5852,7 @@
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -5973,7 +5868,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="63"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -5989,7 +5884,7 @@
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="63"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -6005,7 +5900,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="63"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -6021,7 +5916,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="63"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -6037,7 +5932,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="63"/>
       <c r="C24" s="64" t="s">
         <v>100</v>
@@ -6057,7 +5952,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="63"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
@@ -6073,7 +5968,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="63"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -6089,7 +5984,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -6105,7 +6000,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="64"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
@@ -6121,7 +6016,7 @@
       <c r="N28" s="64"/>
       <c r="O28" s="64"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -6137,7 +6032,7 @@
       <c r="N29" s="64"/>
       <c r="O29" s="64"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
@@ -6160,7 +6055,7 @@
       <c r="N30" s="64"/>
       <c r="O30" s="64"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
@@ -6176,7 +6071,7 @@
       <c r="N31" s="64"/>
       <c r="O31" s="64"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -6192,7 +6087,7 @@
       <c r="N32" s="64"/>
       <c r="O32" s="64"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="63"/>
       <c r="C33" s="64"/>
       <c r="E33" s="64"/>
@@ -6207,7 +6102,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="64"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="63"/>
       <c r="E34" s="64"/>
       <c r="H34" s="64"/>
@@ -6219,7 +6114,7 @@
       <c r="N34" s="64"/>
       <c r="O34" s="64"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -6235,7 +6130,7 @@
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="63"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -6251,7 +6146,7 @@
       <c r="N36" s="64"/>
       <c r="O36" s="64"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="63"/>
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
@@ -6267,7 +6162,7 @@
       <c r="N37" s="64"/>
       <c r="O37" s="64"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="63"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
@@ -6281,7 +6176,7 @@
       <c r="N38" s="64"/>
       <c r="O38" s="64"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="63"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
@@ -6301,7 +6196,7 @@
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
@@ -6317,7 +6212,7 @@
       <c r="N40" s="64"/>
       <c r="O40" s="64"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="63"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
@@ -6333,7 +6228,7 @@
       <c r="N41" s="64"/>
       <c r="O41" s="64"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="K42" s="64"/>
@@ -6342,7 +6237,7 @@
       <c r="N42" s="64"/>
       <c r="O42" s="64"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="63"/>
       <c r="C43" s="64"/>
       <c r="K43" s="64"/>
@@ -6351,7 +6246,7 @@
       <c r="N43" s="64"/>
       <c r="O43" s="64"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="63"/>
       <c r="C44" s="64"/>
       <c r="K44" s="64"/>
@@ -6360,7 +6255,7 @@
       <c r="N44" s="64"/>
       <c r="O44" s="64"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="63"/>
       <c r="C45" s="64"/>
       <c r="K45" s="64"/>
@@ -6369,7 +6264,7 @@
       <c r="N45" s="64"/>
       <c r="O45" s="64"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="63"/>
       <c r="C46" s="64"/>
       <c r="E46" s="89"/>
@@ -6380,7 +6275,7 @@
       <c r="N46" s="64"/>
       <c r="O46" s="64"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="63"/>
       <c r="C47" s="64"/>
       <c r="E47" s="64"/>
@@ -6391,7 +6286,7 @@
       <c r="N47" s="64"/>
       <c r="O47" s="64"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="63"/>
       <c r="C48" s="64"/>
       <c r="E48" s="57">
@@ -6406,7 +6301,7 @@
       <c r="N48" s="64"/>
       <c r="O48" s="64"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="63"/>
       <c r="C49" s="64"/>
       <c r="E49" s="57">
@@ -6425,7 +6320,7 @@
       <c r="N49" s="64"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="63"/>
       <c r="C50" s="64"/>
       <c r="J50"/>
@@ -6435,7 +6330,7 @@
       <c r="N50" s="64"/>
       <c r="O50" s="64"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="63"/>
       <c r="D51" s="64"/>
       <c r="K51" s="64"/>
@@ -6444,7 +6339,7 @@
       <c r="N51" s="64"/>
       <c r="O51" s="64"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="63"/>
       <c r="C52" s="64"/>
       <c r="D52" s="64"/>
@@ -6460,7 +6355,7 @@
       <c r="N52" s="64"/>
       <c r="O52" s="64"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
@@ -6480,7 +6375,7 @@
       <c r="N53" s="64"/>
       <c r="O53" s="64"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="63"/>
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
@@ -6496,7 +6391,7 @@
       <c r="N54" s="64"/>
       <c r="O54" s="64"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="63"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -6516,7 +6411,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="64"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="63"/>
       <c r="C56" s="64"/>
       <c r="E56" s="57">
@@ -6535,7 +6430,7 @@
       <c r="N56" s="64"/>
       <c r="O56" s="64"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="63"/>
       <c r="C57" s="64"/>
       <c r="E57" s="57">
@@ -6553,7 +6448,7 @@
       <c r="N57" s="64"/>
       <c r="O57" s="64"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="63"/>
       <c r="C58" s="64"/>
       <c r="K58" s="64"/>
@@ -6562,7 +6457,7 @@
       <c r="N58" s="64"/>
       <c r="O58" s="64"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="63"/>
       <c r="C59" s="64"/>
       <c r="K59" s="64"/>
@@ -6571,7 +6466,7 @@
       <c r="N59" s="64"/>
       <c r="O59" s="64"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="63"/>
       <c r="C60" s="64"/>
       <c r="K60" s="64"/>
@@ -6580,7 +6475,7 @@
       <c r="N60" s="64"/>
       <c r="O60" s="64"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="63"/>
       <c r="C61" s="64"/>
       <c r="K61" s="64"/>
@@ -6589,7 +6484,7 @@
       <c r="N61" s="64"/>
       <c r="O61" s="64"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="63"/>
       <c r="C62" s="64"/>
       <c r="K62" s="64"/>
@@ -6598,7 +6493,7 @@
       <c r="N62" s="64"/>
       <c r="O62" s="64"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="63"/>
       <c r="C63" s="64"/>
       <c r="K63" s="64"/>
@@ -6607,7 +6502,7 @@
       <c r="N63" s="64"/>
       <c r="O63" s="64"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="63"/>
       <c r="C64" s="64"/>
       <c r="K64" s="64"/>
@@ -6616,7 +6511,7 @@
       <c r="N64" s="64"/>
       <c r="O64" s="64"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="63"/>
       <c r="C65" s="64"/>
       <c r="K65" s="64"/>
@@ -6625,7 +6520,7 @@
       <c r="N65" s="64"/>
       <c r="O65" s="64"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="63"/>
       <c r="C66" s="64"/>
       <c r="K66" s="64"/>
@@ -6634,7 +6529,7 @@
       <c r="N66" s="64"/>
       <c r="O66" s="64"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="63"/>
       <c r="C67" s="64"/>
       <c r="K67" s="64"/>
@@ -6643,7 +6538,7 @@
       <c r="N67" s="64"/>
       <c r="O67" s="64"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="63"/>
       <c r="C68" s="64"/>
       <c r="K68" s="64"/>
@@ -6652,7 +6547,7 @@
       <c r="N68" s="64"/>
       <c r="O68" s="64"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="63"/>
       <c r="C69" s="64"/>
       <c r="K69" s="64"/>
@@ -6661,7 +6556,7 @@
       <c r="N69" s="64"/>
       <c r="O69" s="64"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="63"/>
       <c r="C70" s="64"/>
       <c r="K70" s="64"/>
@@ -6670,22 +6565,22 @@
       <c r="N70" s="64"/>
       <c r="O70" s="64"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="63"/>
       <c r="N71" s="64"/>
       <c r="O71" s="64"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="63"/>
       <c r="N72" s="64"/>
       <c r="O72" s="64"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="63"/>
       <c r="N73" s="64"/>
       <c r="O73" s="64"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="63"/>
       <c r="C74" s="142" t="s">
         <v>115</v>
@@ -6693,26 +6588,26 @@
       <c r="N74" s="64"/>
       <c r="O74" s="64"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="63"/>
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
       <c r="N75" s="64"/>
       <c r="O75" s="64"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="63"/>
       <c r="C76" s="64"/>
       <c r="N76" s="64"/>
       <c r="O76" s="64"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="63"/>
       <c r="E77" s="128"/>
       <c r="N77" s="64"/>
       <c r="O77" s="64"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="63"/>
       <c r="E78" s="57">
         <v>50</v>
@@ -6726,208 +6621,208 @@
       <c r="N78" s="64"/>
       <c r="O78" s="64"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="63"/>
       <c r="N79" s="64"/>
       <c r="O79" s="64"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="63"/>
       <c r="F80" s="111"/>
       <c r="N80" s="64"/>
       <c r="O80" s="64"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="63"/>
       <c r="N81" s="64"/>
       <c r="O81" s="64"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="63"/>
       <c r="N82" s="64"/>
       <c r="O82" s="64"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="63"/>
       <c r="N83" s="64"/>
       <c r="O83" s="64"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="63"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="63"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="63"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="63"/>
       <c r="C87" s="64"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="63"/>
       <c r="C88" s="64"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="63"/>
       <c r="C89" s="64"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="63"/>
       <c r="C90" s="64"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="63"/>
       <c r="C91" s="64"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="63"/>
       <c r="C92" s="64"/>
       <c r="E92" s="112"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="63"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="63"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="63"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="63"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="63"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="63"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="63"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="63"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="63"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="63"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="63"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="63"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="63"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="63"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="63"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="63"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="63"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="63"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="63"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="63"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="63"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="63"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="63"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="63"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="63"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="63"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="63"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="63"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="63"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="63"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="63"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="63"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="63"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="63"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="63"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="63"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4">
       <c r="B129" s="63"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4">
       <c r="B130" s="63"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4">
       <c r="B131" s="63"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4">
       <c r="B132" s="63"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4">
       <c r="B133" s="63"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4">
       <c r="B134" s="63"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4">
       <c r="B135" s="63"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4">
       <c r="B136" s="63"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4">
       <c r="B137" s="63"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4">
       <c r="B138" s="63"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4">
       <c r="B139" s="63"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4">
       <c r="B140" s="63"/>
       <c r="C140" s="57" t="s">
         <v>112</v>
@@ -6936,191 +6831,191 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4">
       <c r="B141" s="63"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4">
       <c r="B142" s="63"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4">
       <c r="B143" s="63"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4">
       <c r="B144" s="63"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="127"/>
       <c r="B145" s="129"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="127"/>
       <c r="B146" s="129"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="127"/>
       <c r="B147" s="129"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="127"/>
       <c r="B148" s="129"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="127"/>
       <c r="B149" s="129"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="127"/>
       <c r="B150" s="129"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="127"/>
       <c r="B151" s="129"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="127"/>
       <c r="B152" s="129"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="127"/>
       <c r="B153" s="129"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="127"/>
       <c r="B154" s="129"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="127"/>
       <c r="B155" s="129"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="127"/>
       <c r="B156" s="129"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="127"/>
       <c r="B157" s="129"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="127"/>
       <c r="B158" s="129"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="127"/>
       <c r="B159" s="129"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="127"/>
       <c r="B160" s="129"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="127"/>
       <c r="B161" s="129"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="127"/>
       <c r="B162" s="129"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="127"/>
       <c r="B163" s="129"/>
       <c r="E163" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="127"/>
       <c r="B164" s="129"/>
       <c r="E164" s="57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="127"/>
       <c r="B165" s="129"/>
       <c r="E165" s="57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="127"/>
       <c r="B166" s="129"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="127"/>
       <c r="B167" s="129"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="127"/>
       <c r="B168" s="129"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="127"/>
       <c r="B169" s="129"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="127"/>
       <c r="B170" s="129"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="127"/>
       <c r="B171" s="129"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="127"/>
       <c r="B172" s="129"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="127"/>
       <c r="B173" s="129"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="127"/>
       <c r="B174" s="129"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="127"/>
       <c r="B175" s="129"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="127"/>
       <c r="B176" s="129"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" s="127"/>
       <c r="B177" s="129"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" s="127"/>
       <c r="B178" s="129"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" s="127"/>
       <c r="B179" s="129"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" s="127"/>
       <c r="B180" s="129"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" s="127"/>
       <c r="B181" s="129"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" s="127"/>
       <c r="B182" s="129"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" s="127"/>
       <c r="B183" s="129"/>
       <c r="C183" s="57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" s="127"/>
       <c r="B184" s="129"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" s="127"/>
       <c r="B185" s="129"/>
       <c r="E185" s="57">
@@ -7134,7 +7029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" s="127"/>
       <c r="B186" s="129"/>
       <c r="E186" s="57">
@@ -7150,7 +7045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" s="127"/>
       <c r="B187" s="129"/>
       <c r="E187" s="57">
@@ -7164,223 +7059,223 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" s="127"/>
       <c r="B188" s="129"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" s="127"/>
       <c r="B189" s="129"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" s="127"/>
       <c r="B190" s="129"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" s="127"/>
       <c r="B191" s="129"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" s="127"/>
       <c r="B192" s="129"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="127"/>
       <c r="B193" s="129"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="127"/>
       <c r="B194" s="129"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="127"/>
       <c r="B195" s="129"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="127"/>
       <c r="B196" s="129"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="127"/>
       <c r="B197" s="129"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="127"/>
       <c r="B198" s="129"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="127"/>
       <c r="B199" s="129"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="127"/>
       <c r="B200" s="129"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="127"/>
       <c r="B201" s="129"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="127"/>
       <c r="B202" s="129"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="127"/>
       <c r="B203" s="129"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="127"/>
       <c r="B204" s="129"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="127"/>
       <c r="B205" s="129"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="127"/>
       <c r="B206" s="129"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="127"/>
       <c r="B207" s="129"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="127"/>
       <c r="B208" s="129"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="127"/>
       <c r="B209" s="129"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="127"/>
       <c r="B210" s="129"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="127"/>
       <c r="B211" s="129"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="127"/>
       <c r="B212" s="129"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="127"/>
       <c r="B213" s="129"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="127"/>
       <c r="B214" s="129"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="127"/>
       <c r="B215" s="129"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="127"/>
       <c r="B216" s="129"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="127"/>
       <c r="B217" s="129"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="127"/>
       <c r="B218" s="129"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="127"/>
       <c r="B219" s="129"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="127"/>
       <c r="B220" s="129"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="127"/>
       <c r="B221" s="129"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="127"/>
       <c r="B222" s="129"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="127"/>
       <c r="B223" s="129"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="127"/>
       <c r="B224" s="129"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="127"/>
       <c r="B225" s="129"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="127"/>
       <c r="B226" s="129"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="127"/>
       <c r="B227" s="129"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="127"/>
       <c r="B228" s="129"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="127"/>
       <c r="B229" s="129"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="127"/>
       <c r="B230" s="129"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="127"/>
       <c r="B231" s="129"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="127"/>
       <c r="B232" s="129"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="127"/>
       <c r="B233" s="129"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="127"/>
       <c r="B234" s="129"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="127"/>
       <c r="B235" s="129"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="127"/>
       <c r="B236" s="129"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="127"/>
       <c r="B237" s="129"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="127"/>
       <c r="B238" s="129"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="127"/>
       <c r="B239" s="129"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="127"/>
       <c r="B240" s="129"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="127"/>
       <c r="B241" s="129"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="127"/>
       <c r="B242" s="129"/>
     </row>
